--- a/tests/test_topographic/Topgraphic multiplier test values 2.xlsx
+++ b/tests/test_topographic/Topgraphic multiplier test values 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="195" windowWidth="18480" windowHeight="11565" activeTab="1"/>
+    <workbookView xWindow="255" yWindow="390" windowWidth="23565" windowHeight="12030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AS1170_formula_test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Test values for Topographic multiplier</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>script  results</t>
+  </si>
+  <si>
+    <t>final_line</t>
   </si>
 </sst>
 </file>
@@ -3274,11 +3277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="132189184"/>
-        <c:axId val="132190976"/>
+        <c:axId val="160618752"/>
+        <c:axId val="161611776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132189184"/>
+        <c:axId val="160618752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -3289,12 +3292,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132190976"/>
+        <c:crossAx val="161611776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132190976"/>
+        <c:axId val="161611776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132189184"/>
+        <c:crossAx val="160618752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3654,7 +3657,7 @@
   </sheetPr>
   <dimension ref="A2:AY39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -10284,10 +10287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N175"/>
+  <dimension ref="A2:R175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10298,7 +10301,7 @@
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10315,8 +10318,8 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -10329,7 +10332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -10342,17 +10345,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
@@ -10378,7 +10381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -10401,7 +10404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
@@ -10424,7 +10427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -10483,8 +10486,11 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -10497,8 +10503,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>A15+25</f>
         <v>25</v>
@@ -10512,8 +10521,11 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17:A80" si="0">A16+25</f>
         <v>50</v>
@@ -10527,8 +10539,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -10542,8 +10557,11 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -10557,8 +10575,11 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>125</v>
@@ -10572,8 +10593,11 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -10587,8 +10611,11 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>175</v>
@@ -10602,8 +10629,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -10617,8 +10647,11 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -10632,8 +10665,11 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -10647,8 +10683,11 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>275</v>
@@ -10662,8 +10701,11 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -10677,8 +10719,11 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>325</v>
@@ -10692,8 +10737,11 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>350</v>
@@ -10707,8 +10755,11 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>375</v>
@@ -10722,8 +10773,11 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -10737,8 +10791,11 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>425</v>
@@ -10760,8 +10817,11 @@
         <f>D32-B32</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>450</v>
@@ -10783,8 +10843,11 @@
         <f t="shared" ref="G33:G96" si="2">D33-B33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>475</v>
@@ -10806,8 +10869,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>500</v>
@@ -10829,8 +10895,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>525</v>
@@ -10853,8 +10922,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>550</v>
@@ -10877,8 +10949,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>575</v>
@@ -10901,8 +10976,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>600</v>
@@ -10925,8 +11003,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>625</v>
@@ -10949,8 +11030,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>650</v>
@@ -10973,8 +11057,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>675</v>
@@ -10997,8 +11084,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>700</v>
@@ -11021,8 +11111,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>725</v>
@@ -11045,8 +11138,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>750</v>
@@ -11069,8 +11165,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>775</v>
@@ -11093,8 +11192,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>800</v>
@@ -11117,8 +11219,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>825</v>
@@ -11141,8 +11246,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>850</v>
@@ -11165,8 +11273,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>875</v>
@@ -11189,8 +11300,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>900</v>
@@ -11213,8 +11327,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>925</v>
@@ -11237,8 +11354,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>950</v>
@@ -11261,8 +11381,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>975</v>
@@ -11285,8 +11408,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -11308,8 +11434,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>1025</v>
@@ -11332,8 +11461,11 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>1050</v>
@@ -11356,8 +11488,11 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>1075</v>
@@ -11380,8 +11515,11 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>1100</v>
@@ -11404,8 +11542,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>1125</v>
@@ -11428,8 +11569,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>1150</v>
@@ -11452,8 +11596,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>1175</v>
@@ -11476,8 +11623,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>1200</v>
@@ -11500,8 +11650,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>1225</v>
@@ -11524,8 +11677,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>1250</v>
@@ -11548,8 +11704,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>1275</v>
@@ -11572,8 +11731,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>1300</v>
@@ -11596,8 +11758,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>1325</v>
@@ -11620,8 +11785,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>1350</v>
@@ -11644,8 +11812,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>1375</v>
@@ -11668,8 +11839,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>1400</v>
@@ -11692,8 +11866,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>1425</v>
@@ -11716,8 +11893,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>1450</v>
@@ -11740,8 +11920,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>1475</v>
@@ -11764,8 +11947,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>1500</v>
@@ -11787,8 +11973,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>1525</v>
@@ -11811,8 +12000,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>1550</v>
@@ -11835,8 +12027,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>1575</v>
@@ -11859,8 +12054,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>1600</v>
@@ -11883,8 +12081,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>1625</v>
@@ -11907,8 +12108,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ref="A81:A144" si="6">A80+25</f>
         <v>1650</v>
@@ -11931,8 +12135,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R81">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>1675</v>
@@ -11955,8 +12162,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R82">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>1700</v>
@@ -11979,8 +12189,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="6"/>
         <v>1725</v>
@@ -12003,8 +12216,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="6"/>
         <v>1750</v>
@@ -12027,8 +12243,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="6"/>
         <v>1775</v>
@@ -12051,8 +12270,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="6"/>
         <v>1800</v>
@@ -12075,8 +12297,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="6"/>
         <v>1825</v>
@@ -12099,8 +12324,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="6"/>
         <v>1850</v>
@@ -12123,8 +12351,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="6"/>
         <v>1875</v>
@@ -12147,8 +12378,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="6"/>
         <v>1900</v>
@@ -12171,8 +12405,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="6"/>
         <v>1925</v>
@@ -12195,8 +12432,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="6"/>
         <v>1950</v>
@@ -12219,8 +12459,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R93">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="6"/>
         <v>1975</v>
@@ -12243,8 +12486,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R94">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="6"/>
         <v>2000</v>
@@ -12266,8 +12512,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R95">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="6"/>
         <v>2025</v>
@@ -12289,8 +12538,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R96">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="6"/>
         <v>2050</v>
@@ -12312,8 +12564,11 @@
         <f t="shared" ref="G97:G160" si="8">D97-B97</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R97">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="6"/>
         <v>2075</v>
@@ -12335,8 +12590,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R98">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="6"/>
         <v>2100</v>
@@ -12358,8 +12616,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R99">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="6"/>
         <v>2125</v>
@@ -12381,8 +12642,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="6"/>
         <v>2150</v>
@@ -12404,8 +12668,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R101">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="6"/>
         <v>2175</v>
@@ -12427,8 +12694,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R102">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="6"/>
         <v>2200</v>
@@ -12450,8 +12720,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R103">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="6"/>
         <v>2225</v>
@@ -12473,8 +12746,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R104">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="6"/>
         <v>2250</v>
@@ -12496,8 +12772,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="6"/>
         <v>2275</v>
@@ -12520,8 +12799,12 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R106">
+        <f>R105-5</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="6"/>
         <v>2300</v>
@@ -12544,8 +12827,12 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <f t="shared" ref="R107:R114" si="10">R106-5</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="6"/>
         <v>2325</v>
@@ -12568,8 +12855,12 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R108">
+        <f t="shared" si="10"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="6"/>
         <v>2350</v>
@@ -12592,8 +12883,12 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R109">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="6"/>
         <v>2375</v>
@@ -12616,8 +12911,12 @@
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <f t="shared" si="10"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="6"/>
         <v>2400</v>
@@ -12640,8 +12939,12 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <f t="shared" si="10"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="6"/>
         <v>2425</v>
@@ -12664,8 +12967,12 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R112">
+        <f t="shared" si="10"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="6"/>
         <v>2450</v>
@@ -12688,8 +12995,12 @@
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R113">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="6"/>
         <v>2475</v>
@@ -12712,8 +13023,12 @@
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R114">
+        <f t="shared" si="10"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="6"/>
         <v>2500</v>
@@ -12735,14 +13050,17 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R115">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="6"/>
         <v>2525</v>
       </c>
       <c r="B116">
-        <f t="shared" ref="B116:B125" si="10">B115-5</f>
+        <f t="shared" ref="B116:B125" si="11">B115-5</f>
         <v>265</v>
       </c>
       <c r="C116">
@@ -12759,14 +13077,18 @@
         <f t="shared" si="8"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R116">
+        <f t="shared" ref="R116:R125" si="12">R115-5</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="6"/>
         <v>2550</v>
       </c>
       <c r="B117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>260</v>
       </c>
       <c r="C117">
@@ -12783,14 +13105,18 @@
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R117">
+        <f t="shared" si="12"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="6"/>
         <v>2575</v>
       </c>
       <c r="B118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>255</v>
       </c>
       <c r="C118">
@@ -12807,14 +13133,18 @@
         <f t="shared" si="8"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R118">
+        <f t="shared" si="12"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="6"/>
         <v>2600</v>
       </c>
       <c r="B119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>250</v>
       </c>
       <c r="C119">
@@ -12831,14 +13161,18 @@
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R119">
+        <f t="shared" si="12"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="6"/>
         <v>2625</v>
       </c>
       <c r="B120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>245</v>
       </c>
       <c r="C120">
@@ -12855,14 +13189,18 @@
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R120">
+        <f t="shared" si="12"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="6"/>
         <v>2650</v>
       </c>
       <c r="B121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>240</v>
       </c>
       <c r="C121">
@@ -12879,14 +13217,18 @@
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R121">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="6"/>
         <v>2675</v>
       </c>
       <c r="B122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>235</v>
       </c>
       <c r="C122">
@@ -12903,14 +13245,18 @@
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R122">
+        <f t="shared" si="12"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="B123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>230</v>
       </c>
       <c r="C123">
@@ -12927,14 +13273,18 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R123">
+        <f t="shared" si="12"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="6"/>
         <v>2725</v>
       </c>
       <c r="B124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>225</v>
       </c>
       <c r="C124">
@@ -12951,14 +13301,18 @@
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="6"/>
         <v>2750</v>
       </c>
       <c r="B125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>220</v>
       </c>
       <c r="C125">
@@ -12975,8 +13329,12 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R125">
+        <f t="shared" si="12"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="6"/>
         <v>2775</v>
@@ -12999,14 +13357,18 @@
         <f t="shared" si="8"/>
         <v>107.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <f>R125-7.5</f>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="B127">
-        <f t="shared" ref="B127:B145" si="11">B126-7.5</f>
+        <f t="shared" ref="B127:B145" si="13">B126-7.5</f>
         <v>205</v>
       </c>
       <c r="C127">
@@ -13023,14 +13385,18 @@
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <f t="shared" ref="R127:R145" si="14">R126-7.5</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="6"/>
         <v>2825</v>
       </c>
       <c r="B128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>197.5</v>
       </c>
       <c r="C128">
@@ -13047,14 +13413,18 @@
         <f t="shared" si="8"/>
         <v>122.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <f t="shared" si="14"/>
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="6"/>
         <v>2850</v>
       </c>
       <c r="B129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>190</v>
       </c>
       <c r="C129">
@@ -13071,14 +13441,18 @@
         <f t="shared" si="8"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R129">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="6"/>
         <v>2875</v>
       </c>
       <c r="B130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>182.5</v>
       </c>
       <c r="C130">
@@ -13095,14 +13469,18 @@
         <f t="shared" si="8"/>
         <v>137.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R130">
+        <f t="shared" si="14"/>
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="6"/>
         <v>2900</v>
       </c>
       <c r="B131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>175</v>
       </c>
       <c r="C131">
@@ -13119,14 +13497,18 @@
         <f t="shared" si="8"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R131">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="6"/>
         <v>2925</v>
       </c>
       <c r="B132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>167.5</v>
       </c>
       <c r="C132">
@@ -13143,14 +13525,18 @@
         <f t="shared" si="8"/>
         <v>152.5</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R132">
+        <f t="shared" si="14"/>
+        <v>167.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="6"/>
         <v>2950</v>
       </c>
       <c r="B133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
       <c r="C133">
@@ -13167,14 +13553,18 @@
         <f t="shared" si="8"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R133">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="6"/>
         <v>2975</v>
       </c>
       <c r="B134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>152.5</v>
       </c>
       <c r="C134">
@@ -13191,14 +13581,18 @@
         <f t="shared" si="8"/>
         <v>167.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R134">
+        <f t="shared" si="14"/>
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="B135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>145</v>
       </c>
       <c r="C135">
@@ -13215,14 +13609,18 @@
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R135">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="6"/>
         <v>3025</v>
       </c>
       <c r="B136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>137.5</v>
       </c>
       <c r="C136">
@@ -13239,14 +13637,18 @@
         <f t="shared" si="8"/>
         <v>182.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R136">
+        <f t="shared" si="14"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="6"/>
         <v>3050</v>
       </c>
       <c r="B137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
       <c r="C137">
@@ -13263,14 +13665,18 @@
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R137">
+        <f t="shared" si="14"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="6"/>
         <v>3075</v>
       </c>
       <c r="B138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>122.5</v>
       </c>
       <c r="C138">
@@ -13287,14 +13693,18 @@
         <f t="shared" si="8"/>
         <v>197.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R138">
+        <f t="shared" si="14"/>
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="6"/>
         <v>3100</v>
       </c>
       <c r="B139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>115</v>
       </c>
       <c r="C139">
@@ -13311,14 +13721,18 @@
         <f t="shared" si="8"/>
         <v>205</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R139">
+        <f t="shared" si="14"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="6"/>
         <v>3125</v>
       </c>
       <c r="B140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>107.5</v>
       </c>
       <c r="C140">
@@ -13335,14 +13749,18 @@
         <f t="shared" si="8"/>
         <v>212.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R140">
+        <f t="shared" si="14"/>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="6"/>
         <v>3150</v>
       </c>
       <c r="B141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="C141">
@@ -13359,14 +13777,18 @@
         <f t="shared" si="8"/>
         <v>220</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R141">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="6"/>
         <v>3175</v>
       </c>
       <c r="B142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>92.5</v>
       </c>
       <c r="C142">
@@ -13383,14 +13805,18 @@
         <f t="shared" si="8"/>
         <v>227.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R142">
+        <f t="shared" si="14"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="6"/>
         <v>3200</v>
       </c>
       <c r="B143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
       <c r="C143">
@@ -13407,14 +13833,18 @@
         <f t="shared" si="8"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R143">
+        <f t="shared" si="14"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="6"/>
         <v>3225</v>
       </c>
       <c r="B144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>77.5</v>
       </c>
       <c r="C144">
@@ -13431,14 +13861,18 @@
         <f t="shared" si="8"/>
         <v>242.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R144">
+        <f t="shared" si="14"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" ref="A145:A175" si="12">A144+25</f>
+        <f t="shared" ref="A145:A175" si="15">A144+25</f>
         <v>3250</v>
       </c>
       <c r="B145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="C145">
@@ -13455,10 +13889,14 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R145">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3275</v>
       </c>
       <c r="B146">
@@ -13478,10 +13916,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R146">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3300</v>
       </c>
       <c r="B147">
@@ -13501,10 +13942,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3325</v>
       </c>
       <c r="B148">
@@ -13524,10 +13968,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R148">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3350</v>
       </c>
       <c r="B149">
@@ -13547,10 +13994,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R149">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3375</v>
       </c>
       <c r="B150">
@@ -13570,10 +14020,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R150">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3400</v>
       </c>
       <c r="B151">
@@ -13593,10 +14046,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R151">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3425</v>
       </c>
       <c r="B152">
@@ -13616,10 +14072,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R152">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3450</v>
       </c>
       <c r="B153">
@@ -13639,10 +14098,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R153">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3475</v>
       </c>
       <c r="B154">
@@ -13662,10 +14124,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R154">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3500</v>
       </c>
       <c r="B155">
@@ -13685,10 +14150,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R155">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3525</v>
       </c>
       <c r="B156">
@@ -13708,10 +14176,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R156">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3550</v>
       </c>
       <c r="B157">
@@ -13731,10 +14202,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R157">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3575</v>
       </c>
       <c r="B158">
@@ -13754,10 +14228,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R158">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3600</v>
       </c>
       <c r="B159">
@@ -13777,10 +14254,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R159">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3625</v>
       </c>
       <c r="B160">
@@ -13800,10 +14280,13 @@
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R160">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3650</v>
       </c>
       <c r="B161">
@@ -13816,17 +14299,20 @@
         <v>320</v>
       </c>
       <c r="F161">
-        <f t="shared" ref="F161:F175" si="13">C161-B161</f>
+        <f t="shared" ref="F161:F175" si="16">C161-B161</f>
         <v>250</v>
       </c>
       <c r="G161">
-        <f t="shared" ref="G161:G175" si="14">D161-B161</f>
+        <f t="shared" ref="G161:G175" si="17">D161-B161</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R161">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3675</v>
       </c>
       <c r="B162">
@@ -13839,17 +14325,20 @@
         <v>320</v>
       </c>
       <c r="F162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R162">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3700</v>
       </c>
       <c r="B163">
@@ -13862,17 +14351,20 @@
         <v>320</v>
       </c>
       <c r="F163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R163">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3725</v>
       </c>
       <c r="B164">
@@ -13885,17 +14377,20 @@
         <v>320</v>
       </c>
       <c r="F164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R164">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3750</v>
       </c>
       <c r="B165">
@@ -13908,17 +14403,20 @@
         <v>320</v>
       </c>
       <c r="F165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R165">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3775</v>
       </c>
       <c r="B166">
@@ -13931,17 +14429,20 @@
         <v>320</v>
       </c>
       <c r="F166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R166">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3800</v>
       </c>
       <c r="B167">
@@ -13954,17 +14455,20 @@
         <v>320</v>
       </c>
       <c r="F167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R167">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3825</v>
       </c>
       <c r="B168">
@@ -13977,17 +14481,20 @@
         <v>320</v>
       </c>
       <c r="F168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R168">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3850</v>
       </c>
       <c r="B169">
@@ -14000,17 +14507,20 @@
         <v>320</v>
       </c>
       <c r="F169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R169">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3875</v>
       </c>
       <c r="B170">
@@ -14023,17 +14533,20 @@
         <v>320</v>
       </c>
       <c r="F170">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R170">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3900</v>
       </c>
       <c r="B171">
@@ -14046,17 +14559,20 @@
         <v>320</v>
       </c>
       <c r="F171">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R171">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3925</v>
       </c>
       <c r="B172">
@@ -14069,17 +14585,20 @@
         <v>320</v>
       </c>
       <c r="F172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R172">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3950</v>
       </c>
       <c r="B173">
@@ -14092,17 +14611,20 @@
         <v>320</v>
       </c>
       <c r="F173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R173">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3975</v>
       </c>
       <c r="B174">
@@ -14115,17 +14637,20 @@
         <v>320</v>
       </c>
       <c r="F174">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R174">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4000</v>
       </c>
       <c r="B175">
@@ -14138,12 +14663,15 @@
         <v>320</v>
       </c>
       <c r="F175">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>250</v>
       </c>
       <c r="G175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>250</v>
+      </c>
+      <c r="R175">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
